--- a/01_data_processing/web_scraping/trendiano_goods_info_muban.xlsx
+++ b/01_data_processing/web_scraping/trendiano_goods_info_muban.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
